--- a/EnsAmFindings.xlsx
+++ b/EnsAmFindings.xlsx
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1366,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1412,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="G36">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1619,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1688,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="G48">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1711,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1734,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1757,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1780,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="G52">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1849,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1872,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1987,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2056,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="G64">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2286,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2309,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="G75">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2332,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="G76">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2355,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="G86">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2654,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2884,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="G100">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2907,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="G101">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="G104">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3022,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3068,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3298,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3344,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3459,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="G126">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3551,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="G129">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="G132">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3689,7 +3689,7 @@
         <v>2</v>
       </c>
       <c r="G135">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3712,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="G136">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3735,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="G137">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="G139">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3804,7 +3804,7 @@
         <v>2</v>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3827,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3896,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3919,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="G145">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="G146">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3965,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="G147">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3988,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="G148">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="G149">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G150">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="G151">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="G152">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="G153">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="G155">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="G156">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G157">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4218,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="G158">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G160">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="G161">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="G162">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="G163">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="G164">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4379,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="G165">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="G166">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="G167">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="G168">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="G169">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="G170">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="G172">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="G173">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="G175">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="G179">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="G180">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G182">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="G183">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="G184">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4839,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="G185">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4862,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="G186">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4885,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="G187">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G188">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4931,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="G189">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4954,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="G190">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="G191">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G192">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G193">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="G194">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="G195">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="G196">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5138,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="G198">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5161,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="G199">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="G200">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="G201">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="G202">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5253,7 +5253,7 @@
         <v>2</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5276,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="G204">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="G205">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G206">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="G207">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="G208">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5414,7 +5414,7 @@
         <v>2</v>
       </c>
       <c r="G210">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="G211">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5460,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="G212">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5483,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="G213">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5506,7 +5506,7 @@
         <v>2</v>
       </c>
       <c r="G214">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5529,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="G215">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5552,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="G216">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="G217">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5598,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="G218">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="G220">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="G221">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="G222">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="G223">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="G224">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="G225">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5828,7 +5828,7 @@
         <v>2</v>
       </c>
       <c r="G228">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5851,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="G229">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5874,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="G230">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5897,7 +5897,7 @@
         <v>2</v>
       </c>
       <c r="G231">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5920,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="G232">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="G233">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5966,7 +5966,7 @@
         <v>2</v>
       </c>
       <c r="G234">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5989,7 +5989,7 @@
         <v>2</v>
       </c>
       <c r="G235">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="G236">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6035,7 +6035,7 @@
         <v>2</v>
       </c>
       <c r="G237">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="G238">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="G239">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="G240">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6127,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="G241">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6150,7 +6150,7 @@
         <v>2</v>
       </c>
       <c r="G242">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6173,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="G243">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6196,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="G244">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6219,7 +6219,7 @@
         <v>2</v>
       </c>
       <c r="G245">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6242,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="G246">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6265,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="G247">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="G248">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6311,7 +6311,7 @@
         <v>2</v>
       </c>
       <c r="G249">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6334,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="G250">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6357,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="G251">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="G252">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6426,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="G254">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6449,7 +6449,7 @@
         <v>3</v>
       </c>
       <c r="G255">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6472,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="G256">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="G258">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6564,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="G260">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="G261">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6633,7 +6633,7 @@
         <v>3</v>
       </c>
       <c r="G263">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6656,7 +6656,7 @@
         <v>3</v>
       </c>
       <c r="G264">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6679,7 +6679,7 @@
         <v>2</v>
       </c>
       <c r="G265">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6702,7 +6702,7 @@
         <v>2</v>
       </c>
       <c r="G266">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="G267">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6748,7 +6748,7 @@
         <v>2</v>
       </c>
       <c r="G268">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6771,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="G269">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="G270">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="G271">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="G272">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="G273">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6886,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="G274">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="G275">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="G276">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6955,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="G277">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="G278">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="G279">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7024,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="G280">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7070,7 +7070,7 @@
         <v>2</v>
       </c>
       <c r="G282">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -7093,7 +7093,7 @@
         <v>2</v>
       </c>
       <c r="G283">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7116,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="G284">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="G285">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="G286">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="G288">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="G289">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7254,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="G290">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7277,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="G291">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7323,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="G293">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="G294">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7392,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="G296">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7415,7 +7415,7 @@
         <v>2</v>
       </c>
       <c r="G297">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7438,7 +7438,7 @@
         <v>2</v>
       </c>
       <c r="G298">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7461,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="G299">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7484,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="G300">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="G301">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7530,7 +7530,7 @@
         <v>1</v>
       </c>
       <c r="G302">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="G303">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7576,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="G304">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="G305">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7622,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="G306">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="G307">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7668,7 +7668,7 @@
         <v>3</v>
       </c>
       <c r="G308">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7691,7 +7691,7 @@
         <v>5</v>
       </c>
       <c r="G309">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7714,7 +7714,7 @@
         <v>5</v>
       </c>
       <c r="G310">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7737,7 +7737,7 @@
         <v>5</v>
       </c>
       <c r="G311">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7760,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="G312">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="G313">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="G314">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7852,7 +7852,7 @@
         <v>3</v>
       </c>
       <c r="G316">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7875,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="G317">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7898,7 +7898,7 @@
         <v>3</v>
       </c>
       <c r="G318">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7921,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="G319">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="G320">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7967,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="G321">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="G322">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -8013,7 +8013,7 @@
         <v>2</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="G324">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -8059,7 +8059,7 @@
         <v>2</v>
       </c>
       <c r="G325">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -8082,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="G326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="G327">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -8128,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="G328">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -8151,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="G329">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8174,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="G330">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8197,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="G331">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8220,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="G332">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="G333">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="G334">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8289,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="G335">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8312,7 +8312,7 @@
         <v>2</v>
       </c>
       <c r="G336">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8335,7 +8335,7 @@
         <v>2</v>
       </c>
       <c r="G337">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8358,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="G338">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8381,7 +8381,7 @@
         <v>2</v>
       </c>
       <c r="G339">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8404,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="G340">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8427,7 +8427,7 @@
         <v>2</v>
       </c>
       <c r="G341">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8450,7 +8450,7 @@
         <v>2</v>
       </c>
       <c r="G342">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8473,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="G343">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8496,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="G344">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="G345">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8542,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="G346">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="G347">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8588,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="G348">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -8611,7 +8611,7 @@
         <v>2</v>
       </c>
       <c r="G349">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -8634,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="G350">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8657,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -8680,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="G352">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -8726,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="G354">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="G355">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -8772,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="G356">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -8795,7 +8795,7 @@
         <v>2</v>
       </c>
       <c r="G357">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -8818,7 +8818,7 @@
         <v>2</v>
       </c>
       <c r="G358">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -8841,7 +8841,7 @@
         <v>2</v>
       </c>
       <c r="G359">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -8864,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="G360">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -8887,7 +8887,7 @@
         <v>3</v>
       </c>
       <c r="G361">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -8910,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="G362">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -8933,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="G363">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -8956,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="G364">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8979,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="G365">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -9002,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="G366">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="G367">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -9048,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="G368">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -9071,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="G369">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -9117,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="G371">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -9140,7 +9140,7 @@
         <v>1</v>
       </c>
       <c r="G372">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -9186,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="G374">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9209,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -9232,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="G376">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9255,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="G377">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9278,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="G378">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -9301,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="G379">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -9324,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="G380">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -9347,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="G381">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -9370,7 +9370,7 @@
         <v>2</v>
       </c>
       <c r="G382">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -9393,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="G383">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -9416,7 +9416,7 @@
         <v>2</v>
       </c>
       <c r="G384">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9439,7 +9439,7 @@
         <v>2</v>
       </c>
       <c r="G385">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9462,7 +9462,7 @@
         <v>2</v>
       </c>
       <c r="G386">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -9485,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="G387">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -9508,7 +9508,7 @@
         <v>2</v>
       </c>
       <c r="G388">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -9531,7 +9531,7 @@
         <v>2</v>
       </c>
       <c r="G389">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="G390">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -9577,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="G391">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -9600,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="G392">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="G393">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -9646,7 +9646,7 @@
         <v>2</v>
       </c>
       <c r="G394">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -9669,7 +9669,7 @@
         <v>2</v>
       </c>
       <c r="G395">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -9692,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="G396">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="G397">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -9738,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="G398">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -9761,7 +9761,7 @@
         <v>3</v>
       </c>
       <c r="G399">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -9784,7 +9784,7 @@
         <v>3</v>
       </c>
       <c r="G400">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -9807,7 +9807,7 @@
         <v>2</v>
       </c>
       <c r="G401">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -9830,7 +9830,7 @@
         <v>2</v>
       </c>
       <c r="G402">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -9853,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="G403">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -9876,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="G404">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -9899,7 +9899,7 @@
         <v>2</v>
       </c>
       <c r="G405">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -9922,7 +9922,7 @@
         <v>2</v>
       </c>
       <c r="G406">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -9945,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="G407">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -9968,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="G408">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -9991,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="G409">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -10014,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="G410">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -10037,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="G411">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -10060,7 +10060,7 @@
         <v>1</v>
       </c>
       <c r="G412">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -10083,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="G413">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -10106,7 +10106,7 @@
         <v>2</v>
       </c>
       <c r="G414">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -10129,7 +10129,7 @@
         <v>1</v>
       </c>
       <c r="G415">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -10152,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="G416">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -10175,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="G417">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -10198,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="G418">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -10221,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="G419">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -10244,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="G420">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="G421">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="G423">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -10336,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="G424">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -10359,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="G425">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -10382,7 +10382,7 @@
         <v>2</v>
       </c>
       <c r="G426">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -10405,7 +10405,7 @@
         <v>2</v>
       </c>
       <c r="G427">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="G428">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -10451,7 +10451,7 @@
         <v>2</v>
       </c>
       <c r="G429">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -10474,7 +10474,7 @@
         <v>1</v>
       </c>
       <c r="G430">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -10497,7 +10497,7 @@
         <v>1</v>
       </c>
       <c r="G431">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -10520,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="G432">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -10543,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="G433">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -10566,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="G434">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -10612,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="G436">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -10635,7 +10635,7 @@
         <v>2</v>
       </c>
       <c r="G437">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -10658,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="G438">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="G439">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -10704,7 +10704,7 @@
         <v>1</v>
       </c>
       <c r="G440">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -10727,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="G441">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="G443">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -10819,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="G445">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -10842,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="G446">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="G447">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -10888,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="G448">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -10911,7 +10911,7 @@
         <v>2</v>
       </c>
       <c r="G449">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="G450">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="G451">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -10980,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="G452">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="G453">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -11026,7 +11026,7 @@
         <v>2</v>
       </c>
       <c r="G454">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -11049,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="G455">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -11095,7 +11095,7 @@
         <v>2</v>
       </c>
       <c r="G457">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -11118,7 +11118,7 @@
         <v>2</v>
       </c>
       <c r="G458">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -11141,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="G459">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -11164,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="G460">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -11187,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="G461">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -11210,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="G462">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -11233,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="G463">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -11302,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="G466">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="G467">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11348,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="G468">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="G469">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -11394,7 +11394,7 @@
         <v>3</v>
       </c>
       <c r="G470">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -11417,7 +11417,7 @@
         <v>3</v>
       </c>
       <c r="G471">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -11440,7 +11440,7 @@
         <v>2</v>
       </c>
       <c r="G472">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11463,7 +11463,7 @@
         <v>2</v>
       </c>
       <c r="G473">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="G474">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -11509,7 +11509,7 @@
         <v>1</v>
       </c>
       <c r="G475">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -11532,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="G476">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -11555,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="G477">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="G479">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -11647,7 +11647,7 @@
         <v>1</v>
       </c>
       <c r="G481">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -11670,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="G482">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -11693,7 +11693,7 @@
         <v>2</v>
       </c>
       <c r="G483">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -11716,7 +11716,7 @@
         <v>2</v>
       </c>
       <c r="G484">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -11739,7 +11739,7 @@
         <v>1</v>
       </c>
       <c r="G485">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -11762,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="G486">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -11785,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="G487">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="G488">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="G489">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="G490">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -11877,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="G491">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="G492">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -11923,7 +11923,7 @@
         <v>1</v>
       </c>
       <c r="G493">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -11946,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="G494">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -11969,7 +11969,7 @@
         <v>2</v>
       </c>
       <c r="G495">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -11992,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="G496">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -12015,7 +12015,7 @@
         <v>2</v>
       </c>
       <c r="G497">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="G498">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -12061,7 +12061,7 @@
         <v>1</v>
       </c>
       <c r="G499">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -12084,7 +12084,7 @@
         <v>1</v>
       </c>
       <c r="G500">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="G502">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -12153,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="G503">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -12176,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="G504">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -12199,7 +12199,7 @@
         <v>3</v>
       </c>
       <c r="G505">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12222,7 +12222,7 @@
         <v>3</v>
       </c>
       <c r="G506">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -12245,7 +12245,7 @@
         <v>2</v>
       </c>
       <c r="G507">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="G508">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -12291,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="G509">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -12314,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="G510">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
       <c r="G511">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -12360,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="G512">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -12383,7 +12383,7 @@
         <v>2</v>
       </c>
       <c r="G513">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -12406,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="G514">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -12429,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="G515">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -12452,7 +12452,7 @@
         <v>1</v>
       </c>
       <c r="G516">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -12475,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="G517">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -12498,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="G518">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -12521,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="G519">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -12544,7 +12544,7 @@
         <v>2</v>
       </c>
       <c r="G520">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -12590,7 +12590,7 @@
         <v>2</v>
       </c>
       <c r="G522">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -12613,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="G523">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="G524">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -12659,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="G525">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="G526">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -12705,7 +12705,7 @@
         <v>2</v>
       </c>
       <c r="G527">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -12728,7 +12728,7 @@
         <v>2</v>
       </c>
       <c r="G528">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -12751,7 +12751,7 @@
         <v>2</v>
       </c>
       <c r="G529">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -12774,7 +12774,7 @@
         <v>2</v>
       </c>
       <c r="G530">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="G531">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -12820,7 +12820,7 @@
         <v>2</v>
       </c>
       <c r="G532">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="G533">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -12866,7 +12866,7 @@
         <v>2</v>
       </c>
       <c r="G534">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -12889,7 +12889,7 @@
         <v>2</v>
       </c>
       <c r="G535">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -12912,7 +12912,7 @@
         <v>2</v>
       </c>
       <c r="G536">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -12935,7 +12935,7 @@
         <v>3</v>
       </c>
       <c r="G537">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -12958,7 +12958,7 @@
         <v>3</v>
       </c>
       <c r="G538">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -12981,7 +12981,7 @@
         <v>1</v>
       </c>
       <c r="G539">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -13004,7 +13004,7 @@
         <v>2</v>
       </c>
       <c r="G540">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -13027,7 +13027,7 @@
         <v>2</v>
       </c>
       <c r="G541">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -13050,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="G542">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -13073,7 +13073,7 @@
         <v>1</v>
       </c>
       <c r="G543">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -13096,7 +13096,7 @@
         <v>1</v>
       </c>
       <c r="G544">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -13119,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="G545">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -13142,7 +13142,7 @@
         <v>4</v>
       </c>
       <c r="G546">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -13165,7 +13165,7 @@
         <v>4</v>
       </c>
       <c r="G547">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -13188,7 +13188,7 @@
         <v>4</v>
       </c>
       <c r="G548">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -13211,7 +13211,7 @@
         <v>4</v>
       </c>
       <c r="G549">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="G550">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -13257,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="G551">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -13280,7 +13280,7 @@
         <v>2</v>
       </c>
       <c r="G552">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -13303,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="G553">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -13326,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="G554">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -13349,7 +13349,7 @@
         <v>1</v>
       </c>
       <c r="G555">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -13372,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="G556">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -13395,7 +13395,7 @@
         <v>1</v>
       </c>
       <c r="G557">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="G558">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -13441,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="G559">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -13464,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="G560">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -13487,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="G561">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -13510,7 +13510,7 @@
         <v>1</v>
       </c>
       <c r="G562">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="G563">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="G564">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -13579,7 +13579,7 @@
         <v>1</v>
       </c>
       <c r="G565">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -13602,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="G566">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="G567">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -13648,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="G568">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="G570">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="G571">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -13740,7 +13740,7 @@
         <v>2</v>
       </c>
       <c r="G572">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -13763,7 +13763,7 @@
         <v>2</v>
       </c>
       <c r="G573">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -13786,7 +13786,7 @@
         <v>4</v>
       </c>
       <c r="G574">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -13809,7 +13809,7 @@
         <v>4</v>
       </c>
       <c r="G575">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -13832,7 +13832,7 @@
         <v>2</v>
       </c>
       <c r="G576">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -13855,7 +13855,7 @@
         <v>1</v>
       </c>
       <c r="G577">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -13878,7 +13878,7 @@
         <v>1</v>
       </c>
       <c r="G578">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -13901,7 +13901,7 @@
         <v>3</v>
       </c>
       <c r="G579">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -13924,7 +13924,7 @@
         <v>3</v>
       </c>
       <c r="G580">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -13947,7 +13947,7 @@
         <v>3</v>
       </c>
       <c r="G581">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="G583">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -14016,7 +14016,7 @@
         <v>1</v>
       </c>
       <c r="G584">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -14039,7 +14039,7 @@
         <v>2</v>
       </c>
       <c r="G585">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -14062,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="G586">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -14085,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="G587">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="G588">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -14131,7 +14131,7 @@
         <v>1</v>
       </c>
       <c r="G589">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -14154,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="G590">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -14177,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="G591">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="G592">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -14223,7 +14223,7 @@
         <v>2</v>
       </c>
       <c r="G593">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -14246,7 +14246,7 @@
         <v>2</v>
       </c>
       <c r="G594">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -14269,7 +14269,7 @@
         <v>3</v>
       </c>
       <c r="G595">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -14292,7 +14292,7 @@
         <v>3</v>
       </c>
       <c r="G596">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -14315,7 +14315,7 @@
         <v>4</v>
       </c>
       <c r="G597">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -14338,7 +14338,7 @@
         <v>4</v>
       </c>
       <c r="G598">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -14361,7 +14361,7 @@
         <v>4</v>
       </c>
       <c r="G599">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -14384,7 +14384,7 @@
         <v>4</v>
       </c>
       <c r="G600">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -14407,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="G601">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -14430,7 +14430,7 @@
         <v>4</v>
       </c>
       <c r="G602">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -14453,7 +14453,7 @@
         <v>1</v>
       </c>
       <c r="G603">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -14476,7 +14476,7 @@
         <v>1</v>
       </c>
       <c r="G604">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -14499,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="G605">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -14522,7 +14522,7 @@
         <v>1</v>
       </c>
       <c r="G606">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="G607">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -14568,7 +14568,7 @@
         <v>2</v>
       </c>
       <c r="G608">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -14591,7 +14591,7 @@
         <v>3</v>
       </c>
       <c r="G609">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -14614,7 +14614,7 @@
         <v>3</v>
       </c>
       <c r="G610">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="G611">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -14660,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="G612">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -14683,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="G613">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -14706,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="G614">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="615" spans="1:7">
@@ -14729,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="G615">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -14752,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="G616">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="617" spans="1:7">
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="G617">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -14798,7 +14798,7 @@
         <v>2</v>
       </c>
       <c r="G618">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -14821,7 +14821,7 @@
         <v>2</v>
       </c>
       <c r="G619">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -14844,7 +14844,7 @@
         <v>2</v>
       </c>
       <c r="G620">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -14867,7 +14867,7 @@
         <v>2</v>
       </c>
       <c r="G621">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -14890,7 +14890,7 @@
         <v>2</v>
       </c>
       <c r="G622">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -14913,7 +14913,7 @@
         <v>2</v>
       </c>
       <c r="G623">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -14936,7 +14936,7 @@
         <v>2</v>
       </c>
       <c r="G624">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -14959,7 +14959,7 @@
         <v>2</v>
       </c>
       <c r="G625">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -14982,7 +14982,7 @@
         <v>2</v>
       </c>
       <c r="G626">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="G627">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -15028,7 +15028,7 @@
         <v>1</v>
       </c>
       <c r="G628">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -15051,7 +15051,7 @@
         <v>1</v>
       </c>
       <c r="G629">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -15074,7 +15074,7 @@
         <v>2</v>
       </c>
       <c r="G630">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -15097,7 +15097,7 @@
         <v>2</v>
       </c>
       <c r="G631">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -15120,7 +15120,7 @@
         <v>1</v>
       </c>
       <c r="G632">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -15143,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="G633">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -15166,7 +15166,7 @@
         <v>1</v>
       </c>
       <c r="G634">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="G635">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="G636">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -15235,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="G637">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -15258,7 +15258,7 @@
         <v>1</v>
       </c>
       <c r="G638">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="G639">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="G640">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -15327,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="G641">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -15350,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="G642">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="G643">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -15396,7 +15396,7 @@
         <v>1</v>
       </c>
       <c r="G644">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -15419,7 +15419,7 @@
         <v>1</v>
       </c>
       <c r="G645">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -15442,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="G646">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -15465,7 +15465,7 @@
         <v>1</v>
       </c>
       <c r="G647">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -15488,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="G648">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="G649">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -15534,7 +15534,7 @@
         <v>2</v>
       </c>
       <c r="G650">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -15557,7 +15557,7 @@
         <v>1</v>
       </c>
       <c r="G651">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -15580,7 +15580,7 @@
         <v>2</v>
       </c>
       <c r="G652">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -15603,7 +15603,7 @@
         <v>2</v>
       </c>
       <c r="G653">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -15626,7 +15626,7 @@
         <v>2</v>
       </c>
       <c r="G654">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -15649,7 +15649,7 @@
         <v>1</v>
       </c>
       <c r="G655">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -15672,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="G656">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -15695,7 +15695,7 @@
         <v>1</v>
       </c>
       <c r="G657">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -15718,7 +15718,7 @@
         <v>1</v>
       </c>
       <c r="G658">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -15741,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="G659">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="G660">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -15787,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="G661">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -15810,7 +15810,7 @@
         <v>3</v>
       </c>
       <c r="G662">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -15833,7 +15833,7 @@
         <v>2</v>
       </c>
       <c r="G663">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -15856,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="G664">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -15879,7 +15879,7 @@
         <v>2</v>
       </c>
       <c r="G665">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -15902,7 +15902,7 @@
         <v>1</v>
       </c>
       <c r="G666">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="G667">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -15948,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="G668">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -15971,7 +15971,7 @@
         <v>1</v>
       </c>
       <c r="G669">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="G670">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -16017,7 +16017,7 @@
         <v>1</v>
       </c>
       <c r="G671">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -16040,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="G672">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -16063,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="G673">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -16086,7 +16086,7 @@
         <v>1</v>
       </c>
       <c r="G674">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -16109,7 +16109,7 @@
         <v>1</v>
       </c>
       <c r="G675">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -16132,7 +16132,7 @@
         <v>3</v>
       </c>
       <c r="G676">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="G677">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -16178,7 +16178,7 @@
         <v>3</v>
       </c>
       <c r="G678">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="G679">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -16224,7 +16224,7 @@
         <v>2</v>
       </c>
       <c r="G680">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="681" spans="1:7">
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="G682">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="683" spans="1:7">
@@ -16293,7 +16293,7 @@
         <v>2</v>
       </c>
       <c r="G683">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -16316,7 +16316,7 @@
         <v>1</v>
       </c>
       <c r="G684">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -16339,7 +16339,7 @@
         <v>1</v>
       </c>
       <c r="G685">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -16362,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="G686">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="687" spans="1:7">
@@ -16385,7 +16385,7 @@
         <v>3</v>
       </c>
       <c r="G687">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="688" spans="1:7">
@@ -16408,7 +16408,7 @@
         <v>1</v>
       </c>
       <c r="G688">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="689" spans="1:7">
@@ -16431,7 +16431,7 @@
         <v>1</v>
       </c>
       <c r="G689">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="690" spans="1:7">
@@ -16454,7 +16454,7 @@
         <v>1</v>
       </c>
       <c r="G690">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -16477,7 +16477,7 @@
         <v>1</v>
       </c>
       <c r="G691">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -16500,7 +16500,7 @@
         <v>3</v>
       </c>
       <c r="G692">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -16523,7 +16523,7 @@
         <v>1</v>
       </c>
       <c r="G693">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="694" spans="1:7">
@@ -16546,7 +16546,7 @@
         <v>2</v>
       </c>
       <c r="G694">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="695" spans="1:7">
@@ -16569,7 +16569,7 @@
         <v>2</v>
       </c>
       <c r="G695">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -16592,7 +16592,7 @@
         <v>2</v>
       </c>
       <c r="G696">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="697" spans="1:7">
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
       <c r="G697">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="698" spans="1:7">
@@ -16638,7 +16638,7 @@
         <v>1</v>
       </c>
       <c r="G698">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="699" spans="1:7">
@@ -16661,7 +16661,7 @@
         <v>1</v>
       </c>
       <c r="G699">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="700" spans="1:7">
@@ -16684,7 +16684,7 @@
         <v>1</v>
       </c>
       <c r="G700">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -16707,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="G701">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="702" spans="1:7">
@@ -16730,7 +16730,7 @@
         <v>2</v>
       </c>
       <c r="G702">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -16753,7 +16753,7 @@
         <v>2</v>
       </c>
       <c r="G703">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="704" spans="1:7">
@@ -16776,7 +16776,7 @@
         <v>2</v>
       </c>
       <c r="G704">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -16799,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="G705">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -16822,7 +16822,7 @@
         <v>2</v>
       </c>
       <c r="G706">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -16845,7 +16845,7 @@
         <v>1</v>
       </c>
       <c r="G707">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="708" spans="1:7">
@@ -16868,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="G708">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -16891,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="G709">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -16914,7 +16914,7 @@
         <v>1</v>
       </c>
       <c r="G710">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="G711">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -16960,7 +16960,7 @@
         <v>2</v>
       </c>
       <c r="G712">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="713" spans="1:7">
@@ -16983,7 +16983,7 @@
         <v>1</v>
       </c>
       <c r="G713">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="714" spans="1:7">
@@ -17006,7 +17006,7 @@
         <v>2</v>
       </c>
       <c r="G714">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="715" spans="1:7">
@@ -17029,7 +17029,7 @@
         <v>1</v>
       </c>
       <c r="G715">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="716" spans="1:7">
@@ -17052,7 +17052,7 @@
         <v>1</v>
       </c>
       <c r="G716">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="717" spans="1:7">
@@ -17075,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="G717">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:7">
@@ -17098,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="G718">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="719" spans="1:7">
@@ -17144,7 +17144,7 @@
         <v>1</v>
       </c>
       <c r="G720">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:7">
@@ -17167,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="G721">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="722" spans="1:7">
@@ -17190,7 +17190,7 @@
         <v>1</v>
       </c>
       <c r="G722">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="723" spans="1:7">
@@ -17213,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="G723">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -17236,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="G724">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="725" spans="1:7">
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="G726">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -17328,7 +17328,7 @@
         <v>1</v>
       </c>
       <c r="G728">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="729" spans="1:7">
@@ -17351,7 +17351,7 @@
         <v>3</v>
       </c>
       <c r="G729">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="730" spans="1:7">
@@ -17374,7 +17374,7 @@
         <v>1</v>
       </c>
       <c r="G730">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="731" spans="1:7">
@@ -17397,7 +17397,7 @@
         <v>2</v>
       </c>
       <c r="G731">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="732" spans="1:7">
@@ -17420,7 +17420,7 @@
         <v>2</v>
       </c>
       <c r="G732">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="733" spans="1:7">
@@ -17443,7 +17443,7 @@
         <v>2</v>
       </c>
       <c r="G733">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="734" spans="1:7">
@@ -17466,7 +17466,7 @@
         <v>1</v>
       </c>
       <c r="G734">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735" spans="1:7">
@@ -17489,7 +17489,7 @@
         <v>1</v>
       </c>
       <c r="G735">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="736" spans="1:7">
@@ -17512,7 +17512,7 @@
         <v>2</v>
       </c>
       <c r="G736">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="737" spans="1:7">
@@ -17535,7 +17535,7 @@
         <v>1</v>
       </c>
       <c r="G737">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="738" spans="1:7">
@@ -17558,7 +17558,7 @@
         <v>1</v>
       </c>
       <c r="G738">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="739" spans="1:7">
@@ -17581,7 +17581,7 @@
         <v>1</v>
       </c>
       <c r="G739">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="740" spans="1:7">
@@ -17604,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="G740">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="741" spans="1:7">
@@ -17627,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="G741">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="742" spans="1:7">
@@ -17650,7 +17650,7 @@
         <v>1</v>
       </c>
       <c r="G742">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="743" spans="1:7">
@@ -17673,7 +17673,7 @@
         <v>1</v>
       </c>
       <c r="G743">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="744" spans="1:7">
@@ -17696,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="G744">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="745" spans="1:7">
@@ -17719,7 +17719,7 @@
         <v>1</v>
       </c>
       <c r="G745">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="746" spans="1:7">
@@ -17742,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="G746">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="747" spans="1:7">
@@ -17765,7 +17765,7 @@
         <v>2</v>
       </c>
       <c r="G747">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="748" spans="1:7">
@@ -17788,7 +17788,7 @@
         <v>1</v>
       </c>
       <c r="G748">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:7">
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="G749">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="750" spans="1:7">
@@ -17834,7 +17834,7 @@
         <v>2</v>
       </c>
       <c r="G750">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="751" spans="1:7">
@@ -17857,7 +17857,7 @@
         <v>2</v>
       </c>
       <c r="G751">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="752" spans="1:7">
@@ -17880,7 +17880,7 @@
         <v>1</v>
       </c>
       <c r="G752">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="753" spans="1:7">
@@ -17903,7 +17903,7 @@
         <v>1</v>
       </c>
       <c r="G753">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="754" spans="1:7">
@@ -17949,7 +17949,7 @@
         <v>1</v>
       </c>
       <c r="G755">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="756" spans="1:7">
@@ -17972,7 +17972,7 @@
         <v>1</v>
       </c>
       <c r="G756">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="757" spans="1:7">
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="G757">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="758" spans="1:7">
@@ -18018,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="G758">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="759" spans="1:7">
@@ -18041,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="G759">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="760" spans="1:7">
@@ -18064,7 +18064,7 @@
         <v>1</v>
       </c>
       <c r="G760">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761" spans="1:7">
@@ -18110,7 +18110,7 @@
         <v>1</v>
       </c>
       <c r="G762">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="763" spans="1:7">
@@ -18133,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="G763">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="764" spans="1:7">
@@ -18156,7 +18156,7 @@
         <v>2</v>
       </c>
       <c r="G764">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765" spans="1:7">
@@ -18179,7 +18179,7 @@
         <v>2</v>
       </c>
       <c r="G765">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="766" spans="1:7">
@@ -18202,7 +18202,7 @@
         <v>1</v>
       </c>
       <c r="G766">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="767" spans="1:7">
@@ -18225,7 +18225,7 @@
         <v>1</v>
       </c>
       <c r="G767">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="768" spans="1:7">
@@ -18248,7 +18248,7 @@
         <v>1</v>
       </c>
       <c r="G768">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="769" spans="1:7">
@@ -18271,7 +18271,7 @@
         <v>1</v>
       </c>
       <c r="G769">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="770" spans="1:7">
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="G770">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="771" spans="1:7">
@@ -18340,7 +18340,7 @@
         <v>1</v>
       </c>
       <c r="G772">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="773" spans="1:7">
@@ -18363,7 +18363,7 @@
         <v>1</v>
       </c>
       <c r="G773">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="774" spans="1:7">
@@ -18386,7 +18386,7 @@
         <v>1</v>
       </c>
       <c r="G774">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="775" spans="1:7">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="G775">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="776" spans="1:7">
@@ -18432,7 +18432,7 @@
         <v>1</v>
       </c>
       <c r="G776">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="777" spans="1:7">
@@ -18455,7 +18455,7 @@
         <v>1</v>
       </c>
       <c r="G777">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="778" spans="1:7">
@@ -18478,7 +18478,7 @@
         <v>1</v>
       </c>
       <c r="G778">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="779" spans="1:7">
@@ -18501,7 +18501,7 @@
         <v>1</v>
       </c>
       <c r="G779">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="780" spans="1:7">
@@ -18524,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="G780">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="781" spans="1:7">
@@ -18547,7 +18547,7 @@
         <v>1</v>
       </c>
       <c r="G781">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="782" spans="1:7">
@@ -18593,7 +18593,7 @@
         <v>3</v>
       </c>
       <c r="G783">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="784" spans="1:7">
@@ -18616,7 +18616,7 @@
         <v>2</v>
       </c>
       <c r="G784">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785" spans="1:7">
@@ -18639,7 +18639,7 @@
         <v>3</v>
       </c>
       <c r="G785">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="786" spans="1:7">
@@ -18662,7 +18662,7 @@
         <v>3</v>
       </c>
       <c r="G786">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="787" spans="1:7">
@@ -18685,7 +18685,7 @@
         <v>2</v>
       </c>
       <c r="G787">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="788" spans="1:7">
@@ -18708,7 +18708,7 @@
         <v>1</v>
       </c>
       <c r="G788">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="789" spans="1:7">
@@ -18731,7 +18731,7 @@
         <v>1</v>
       </c>
       <c r="G789">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="790" spans="1:7">
@@ -18754,7 +18754,7 @@
         <v>1</v>
       </c>
       <c r="G790">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="791" spans="1:7">
@@ -18777,7 +18777,7 @@
         <v>1</v>
       </c>
       <c r="G791">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="792" spans="1:7">
@@ -18800,7 +18800,7 @@
         <v>2</v>
       </c>
       <c r="G792">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="793" spans="1:7">
@@ -18823,7 +18823,7 @@
         <v>1</v>
       </c>
       <c r="G793">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="794" spans="1:7">
@@ -18846,7 +18846,7 @@
         <v>1</v>
       </c>
       <c r="G794">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="795" spans="1:7">
@@ -18892,7 +18892,7 @@
         <v>1</v>
       </c>
       <c r="G796">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="797" spans="1:7">
@@ -18915,7 +18915,7 @@
         <v>1</v>
       </c>
       <c r="G797">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="798" spans="1:7">
@@ -18938,7 +18938,7 @@
         <v>1</v>
       </c>
       <c r="G798">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="799" spans="1:7">
@@ -18961,7 +18961,7 @@
         <v>2</v>
       </c>
       <c r="G799">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="800" spans="1:7">
@@ -18984,7 +18984,7 @@
         <v>1</v>
       </c>
       <c r="G800">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="801" spans="1:7">
@@ -19007,7 +19007,7 @@
         <v>1</v>
       </c>
       <c r="G801">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="802" spans="1:7">
@@ -19030,7 +19030,7 @@
         <v>1</v>
       </c>
       <c r="G802">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:7">
@@ -19053,7 +19053,7 @@
         <v>1</v>
       </c>
       <c r="G803">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:7">
@@ -19076,7 +19076,7 @@
         <v>1</v>
       </c>
       <c r="G804">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:7">
@@ -19099,7 +19099,7 @@
         <v>1</v>
       </c>
       <c r="G805">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:7">
@@ -19145,7 +19145,7 @@
         <v>2</v>
       </c>
       <c r="G807">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="808" spans="1:7">
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="G808">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="809" spans="1:7">
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="G809">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="810" spans="1:7">
@@ -19214,7 +19214,7 @@
         <v>2</v>
       </c>
       <c r="G810">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="811" spans="1:7">
@@ -19260,7 +19260,7 @@
         <v>2</v>
       </c>
       <c r="G812">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="813" spans="1:7">
@@ -19283,7 +19283,7 @@
         <v>2</v>
       </c>
       <c r="G813">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="814" spans="1:7">
@@ -19306,7 +19306,7 @@
         <v>1</v>
       </c>
       <c r="G814">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="815" spans="1:7">
@@ -19329,7 +19329,7 @@
         <v>1</v>
       </c>
       <c r="G815">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="816" spans="1:7">
@@ -19352,7 +19352,7 @@
         <v>1</v>
       </c>
       <c r="G816">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="817" spans="1:7">
@@ -19375,7 +19375,7 @@
         <v>1</v>
       </c>
       <c r="G817">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="818" spans="1:7">
@@ -19421,7 +19421,7 @@
         <v>1</v>
       </c>
       <c r="G819">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="820" spans="1:7">
@@ -19490,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="G822">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="823" spans="1:7">
@@ -19513,7 +19513,7 @@
         <v>1</v>
       </c>
       <c r="G823">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="824" spans="1:7">
@@ -19536,7 +19536,7 @@
         <v>1</v>
       </c>
       <c r="G824">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="825" spans="1:7">
@@ -19559,7 +19559,7 @@
         <v>1</v>
       </c>
       <c r="G825">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="826" spans="1:7">
@@ -19582,7 +19582,7 @@
         <v>1</v>
       </c>
       <c r="G826">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="827" spans="1:7">
@@ -19605,7 +19605,7 @@
         <v>1</v>
       </c>
       <c r="G827">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="828" spans="1:7">
@@ -19628,7 +19628,7 @@
         <v>1</v>
       </c>
       <c r="G828">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="829" spans="1:7">
@@ -19651,7 +19651,7 @@
         <v>2</v>
       </c>
       <c r="G829">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="830" spans="1:7">
@@ -19674,7 +19674,7 @@
         <v>2</v>
       </c>
       <c r="G830">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="831" spans="1:7">
@@ -19720,7 +19720,7 @@
         <v>1</v>
       </c>
       <c r="G832">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="833" spans="1:7">
@@ -19743,7 +19743,7 @@
         <v>1</v>
       </c>
       <c r="G833">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="834" spans="1:7">
@@ -19766,7 +19766,7 @@
         <v>1</v>
       </c>
       <c r="G834">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="835" spans="1:7">
@@ -19789,7 +19789,7 @@
         <v>1</v>
       </c>
       <c r="G835">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="836" spans="1:7">
@@ -19812,7 +19812,7 @@
         <v>1</v>
       </c>
       <c r="G836">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="837" spans="1:7">
@@ -19835,7 +19835,7 @@
         <v>2</v>
       </c>
       <c r="G837">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="838" spans="1:7">
@@ -19858,7 +19858,7 @@
         <v>2</v>
       </c>
       <c r="G838">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="839" spans="1:7">
@@ -19881,7 +19881,7 @@
         <v>2</v>
       </c>
       <c r="G839">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="840" spans="1:7">
@@ -19904,7 +19904,7 @@
         <v>2</v>
       </c>
       <c r="G840">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="841" spans="1:7">
@@ -19927,7 +19927,7 @@
         <v>1</v>
       </c>
       <c r="G841">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="842" spans="1:7">
@@ -19950,7 +19950,7 @@
         <v>2</v>
       </c>
       <c r="G842">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:7">
@@ -19973,7 +19973,7 @@
         <v>1</v>
       </c>
       <c r="G843">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="844" spans="1:7">
@@ -19996,7 +19996,7 @@
         <v>1</v>
       </c>
       <c r="G844">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="845" spans="1:7">
@@ -20019,7 +20019,7 @@
         <v>1</v>
       </c>
       <c r="G845">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="846" spans="1:7">
@@ -20042,7 +20042,7 @@
         <v>2</v>
       </c>
       <c r="G846">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="847" spans="1:7">
@@ -20065,7 +20065,7 @@
         <v>2</v>
       </c>
       <c r="G847">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="848" spans="1:7">
@@ -20088,7 +20088,7 @@
         <v>2</v>
       </c>
       <c r="G848">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="849" spans="1:7">
@@ -20111,7 +20111,7 @@
         <v>2</v>
       </c>
       <c r="G849">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="850" spans="1:7">
@@ -20134,7 +20134,7 @@
         <v>2</v>
       </c>
       <c r="G850">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="851" spans="1:7">
@@ -20157,7 +20157,7 @@
         <v>2</v>
       </c>
       <c r="G851">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="852" spans="1:7">
@@ -20180,7 +20180,7 @@
         <v>1</v>
       </c>
       <c r="G852">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="853" spans="1:7">
@@ -20226,7 +20226,7 @@
         <v>1</v>
       </c>
       <c r="G854">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="855" spans="1:7">
@@ -20249,7 +20249,7 @@
         <v>1</v>
       </c>
       <c r="G855">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="856" spans="1:7">
@@ -20272,7 +20272,7 @@
         <v>1</v>
       </c>
       <c r="G856">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="857" spans="1:7">
@@ -20295,7 +20295,7 @@
         <v>1</v>
       </c>
       <c r="G857">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="858" spans="1:7">
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="G858">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="859" spans="1:7">
@@ -20341,7 +20341,7 @@
         <v>1</v>
       </c>
       <c r="G859">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="860" spans="1:7">
@@ -20364,7 +20364,7 @@
         <v>1</v>
       </c>
       <c r="G860">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="861" spans="1:7">
@@ -20387,7 +20387,7 @@
         <v>1</v>
       </c>
       <c r="G861">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="862" spans="1:7">
@@ -20410,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="G862">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="863" spans="1:7">
@@ -20433,7 +20433,7 @@
         <v>1</v>
       </c>
       <c r="G863">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="864" spans="1:7">
@@ -20456,7 +20456,7 @@
         <v>3</v>
       </c>
       <c r="G864">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="865" spans="1:7">
@@ -20479,7 +20479,7 @@
         <v>1</v>
       </c>
       <c r="G865">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="866" spans="1:7">
@@ -20502,7 +20502,7 @@
         <v>1</v>
       </c>
       <c r="G866">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="867" spans="1:7">
@@ -20525,7 +20525,7 @@
         <v>1</v>
       </c>
       <c r="G867">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="868" spans="1:7">
@@ -20548,7 +20548,7 @@
         <v>1</v>
       </c>
       <c r="G868">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="869" spans="1:7">
@@ -20571,7 +20571,7 @@
         <v>2</v>
       </c>
       <c r="G869">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="870" spans="1:7">
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="G870">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="871" spans="1:7">
@@ -20617,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="G871">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="872" spans="1:7">
@@ -20640,7 +20640,7 @@
         <v>1</v>
       </c>
       <c r="G872">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="873" spans="1:7">
@@ -20663,7 +20663,7 @@
         <v>1</v>
       </c>
       <c r="G873">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="874" spans="1:7">
@@ -20686,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="G874">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="875" spans="1:7">
@@ -20709,7 +20709,7 @@
         <v>3</v>
       </c>
       <c r="G875">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="876" spans="1:7">
@@ -20732,7 +20732,7 @@
         <v>1</v>
       </c>
       <c r="G876">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="877" spans="1:7">
@@ -20755,7 +20755,7 @@
         <v>3</v>
       </c>
       <c r="G877">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="878" spans="1:7">
@@ -20778,7 +20778,7 @@
         <v>3</v>
       </c>
       <c r="G878">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="879" spans="1:7">
@@ -20801,7 +20801,7 @@
         <v>2</v>
       </c>
       <c r="G879">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="880" spans="1:7">
@@ -20824,7 +20824,7 @@
         <v>1</v>
       </c>
       <c r="G880">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="881" spans="1:7">
@@ -20847,7 +20847,7 @@
         <v>1</v>
       </c>
       <c r="G881">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="882" spans="1:7">
@@ -20870,7 +20870,7 @@
         <v>2</v>
       </c>
       <c r="G882">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="883" spans="1:7">
@@ -20893,7 +20893,7 @@
         <v>2</v>
       </c>
       <c r="G883">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="884" spans="1:7">
